--- a/常用链接.xlsx
+++ b/常用链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8670"/>
+    <workbookView windowWidth="13515" windowHeight="4770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,6 +78,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -85,7 +154,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,123 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,24 +421,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,17 +448,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,10 +476,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -521,153 +506,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,8 +992,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="1"/>

--- a/常用链接.xlsx
+++ b/常用链接.xlsx
@@ -64,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,8 +77,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,100 +114,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,14 +155,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -215,7 +208,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,8 +427,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,13 +457,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,47 +505,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,94 +526,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,57 +622,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,7 +996,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1022,7 +1025,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1061,10 +1064,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://gitlab.corp.qunar.com/ticket/pagent"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://cerberus.corp.qunar.com/main.htm"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://cerberus.corp.qunar.com/main.htm" tooltip="http://cerberus.corp.qunar.com/main.htm"/>
     <hyperlink ref="B5" r:id="rId3" display="http://qfc.corp.qunar.com/index#/201802/courses"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://tts2.piao.qunar.com/home"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://tts2.piao.qunar.com/home" tooltip="http://tts2.piao.qunar.com/home"/>
     <hyperlink ref="B7" r:id="rId5" display="http://noah.corp.qunar.com" tooltip="http://noah.corp.qunar.com"/>
+    <hyperlink ref="B3" r:id="rId6" display="http://wx.piao.qunar.com/merchant/home.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
